--- a/1_DataTableTemplatesAndMetadata/Site_Specific_Data/template_site_specific_data_WaDE.xlsx
+++ b/1_DataTableTemplatesAndMetadata/Site_Specific_Data/template_site_specific_data_WaDE.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\1_DataTableTemplatesAndMetadata\Site Specific Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\1_DataTableTemplatesAndMetadata\Site_Specific_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8EC11-05CA-4909-9E84-2E0D388DBE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EC50C-D878-42EA-B26F-BE9C644A9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
-    <sheet name="Organizations" sheetId="6" r:id="rId2"/>
+    <sheet name="Methods" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Methods" sheetId="7" r:id="rId4"/>
+    <sheet name="Organizations" sheetId="6" r:id="rId4"/>
     <sheet name="WaterSources" sheetId="4" r:id="rId5"/>
-    <sheet name="Sites" sheetId="5" r:id="rId6"/>
-    <sheet name="Amounts_time_series" sheetId="11" r:id="rId7"/>
+    <sheet name="Sites" sheetId="13" r:id="rId6"/>
+    <sheet name="Site-Amounts-TimeSeries" sheetId="11" r:id="rId7"/>
     <sheet name="PODSite_POUSites" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="206">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -63,9 +63,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>VariableCV</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>The month of the beginning of the data provider's annual reporting period in MM format, numeric.</t>
   </si>
   <si>
-    <t>The annual reporting period for this datatype. Could be a "water year," "irrigation year," a calendar year, or other variant.  Full list available here: http://vocabulary.westernstateswater.org/reportyeartype/.  Appended if needed.</t>
-  </si>
-  <si>
     <t>This is a high-level variable used for site-specific water data. The general categories available are for water withdrawal, consumptive use, and return flow.  Full list available here: http://vocabulary.westernstateswater.org/variable/.  Append if needed.</t>
   </si>
   <si>
@@ -300,12 +294,6 @@
     <t>A hyperlink back to the organization's website. Include https:// header and trailing forward slash</t>
   </si>
   <si>
-    <t>Adel Abdallah, WaDE Program Manager</t>
-  </si>
-  <si>
-    <t>Ryan James, Data Analyst / Hydroinformatics Specialist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Western States Water Council </t>
   </si>
   <si>
@@ -340,12 +328,6 @@
   </si>
   <si>
     <t>All the metadata tables are populated one time only except the SiteVariableAmounts table</t>
-  </si>
-  <si>
-    <t>SiteNativeURL</t>
-  </si>
-  <si>
-    <t>Refers to the URL of the site within the state for more information about it</t>
   </si>
   <si>
     <r>
@@ -372,21 +354,12 @@
     <t>Irrigation</t>
   </si>
   <si>
-    <t>e.g., 3703994</t>
-  </si>
-  <si>
     <t>e.g., -106.700435</t>
   </si>
   <si>
     <t>e.g., Digitized</t>
   </si>
   <si>
-    <t>e.g., Unknown</t>
-  </si>
-  <si>
-    <t>e.g., Consumprive Use</t>
-  </si>
-  <si>
     <t>e.g., Surface Water</t>
   </si>
   <si>
@@ -402,12 +375,6 @@
     <t>e.g., Good</t>
   </si>
   <si>
-    <t>e.g., 1200</t>
-  </si>
-  <si>
-    <t>e.g., MM/DD/YYYY</t>
-  </si>
-  <si>
     <t>e..g, Residential</t>
   </si>
   <si>
@@ -426,12 +393,6 @@
     <t>e.g., Fresh</t>
   </si>
   <si>
-    <t>e.g., Allocation</t>
-  </si>
-  <si>
-    <t>e.g., Allocation Irrigation</t>
-  </si>
-  <si>
     <t>e.g., Colorado Division of Water Resources</t>
   </si>
   <si>
@@ -480,12 +441,6 @@
     <t>CFS</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>WaterYear</t>
-  </si>
-  <si>
     <t>An indicator of data coverage (i.e., spatial coverage or completeness of the data)</t>
   </si>
   <si>
@@ -495,15 +450,9 @@
     <t>The water source name as recognized by the data provider.</t>
   </si>
   <si>
-    <t>The high level description of the water source type (e.g., surface water, groundwater, mixed, reuse, etc.)</t>
-  </si>
-  <si>
     <t>The GIS objects / shape written in Well-Known Text (WKT) format.</t>
   </si>
   <si>
-    <t>e.g, 17839</t>
-  </si>
-  <si>
     <t>e.g., GNIS80002</t>
   </si>
   <si>
@@ -552,9 +501,6 @@
     <t>e.g., Boles Reservoir</t>
   </si>
   <si>
-    <t>e.g., Reservoir</t>
-  </si>
-  <si>
     <t>e.g., 39.58129</t>
   </si>
   <si>
@@ -579,9 +525,6 @@
     <t>e.g, 5</t>
   </si>
   <si>
-    <t>e.g., irrigation</t>
-  </si>
-  <si>
     <t>Date that this data was published by the data provider to the public.</t>
   </si>
   <si>
@@ -676,13 +619,64 @@
   </si>
   <si>
     <t>October, 2022</t>
+  </si>
+  <si>
+    <t>Adel Abdallah (WaDE Program Manager)</t>
+  </si>
+  <si>
+    <t>Ryan James (Data Analyst / Hydroinformatics Specialist)</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingUrl</t>
+  </si>
+  <si>
+    <t>The GIS objects / shape of the water source body, written in Well-Known Text (WKT) format.</t>
+  </si>
+  <si>
+    <t>The high level description of the water source type (e.g., surface water, groundwater, reuse, etc.)</t>
+  </si>
+  <si>
+    <t>e.g, JC-17839</t>
+  </si>
+  <si>
+    <t>e.g., BR-3703-994</t>
+  </si>
+  <si>
+    <t>e.g., Well</t>
+  </si>
+  <si>
+    <t>e.g., Water Use Records</t>
+  </si>
+  <si>
+    <t>CalendarYear</t>
+  </si>
+  <si>
+    <t>The annual reporting period for this datatype. Could be a "water year," "irrigation year," "calendar year", or other variant.  Full list available here: http://vocabulary.westernstateswater.org/reportyeartype/.  Appended if needed.</t>
+  </si>
+  <si>
+    <t>e.g.,01/01/2012</t>
+  </si>
+  <si>
+    <t>e.g., 12/31/2012</t>
+  </si>
+  <si>
+    <t>e.g., 120</t>
+  </si>
+  <si>
+    <t>e.g., Irrigation</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>e.g., Withdrawl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,12 +730,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -774,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -874,21 +862,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1061,12 +1034,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1082,13 +1090,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,13 +1109,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1126,17 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,107 +1135,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1637,7 +1618,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,42 +1628,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="A1" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1695,73 +1676,73 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1778,116 +1759,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="36" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="48" t="s">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="26" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="5"/>
+      <c r="H2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="32" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1896,119 +1889,120 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="F1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="G1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="49" t="s">
+    </row>
+    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="I2" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="50">
-        <v>10</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>143</v>
+      <c r="E3" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="39">
+        <v>1</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2016,116 +2010,106 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="36" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="42" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="50" t="s">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="C3" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="D3" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2134,87 +2118,88 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21" style="19" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="12"/>
+    <col min="7" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>55</v>
+      <c r="F1" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="61" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>104</v>
+      <c r="D3" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2225,525 +2210,478 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FC1D5-7413-4D4B-8F4B-A0DAC5C798A1}">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBBF6D-DECE-47C2-A73D-C9277FE31239}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="17.6640625" style="26"/>
-    <col min="4" max="4" width="18" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="64"/>
-    <col min="7" max="18" width="17.6640625" style="25"/>
-    <col min="19" max="19" width="17.6640625" style="60"/>
-    <col min="21" max="16384" width="17.6640625" style="12"/>
+    <col min="1" max="4" width="14.88671875" style="22"/>
+    <col min="5" max="5" width="14.88671875" style="21"/>
+    <col min="6" max="6" width="20.44140625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" customWidth="1"/>
+    <col min="8" max="16" width="14.88671875" style="21"/>
+    <col min="17" max="17" width="14.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="F1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="51" t="s">
+      <c r="P1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="51" t="s">
+      <c r="K2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="33" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="44" t="s">
+      <c r="D3" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="43">
+        <v>4326</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="44">
+        <v>17060102</v>
+      </c>
+      <c r="L3" s="44">
+        <v>170601</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="58" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="55">
-        <v>4326</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="56">
-        <v>17060102</v>
-      </c>
-      <c r="N3" s="56">
-        <v>170601</v>
-      </c>
-      <c r="O3" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="P3" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q3" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="59"/>
+      <c r="O3" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q18" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{D5433114-EAF8-4F48-84D0-3D45D47C111E}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{3B68B816-234D-4711-80FC-7FD42E8F10A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF1047A-1EE9-45C5-A2F1-82BE4B1B09DE}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="74" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="74" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="26"/>
-    <col min="7" max="7" width="26.109375" style="75" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" style="75" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="76" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="76" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="76" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="76" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="76" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" style="76" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="76" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" style="76" customWidth="1"/>
-    <col min="18" max="18" width="19" style="76" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="76" customWidth="1"/>
-    <col min="20" max="20" width="24.44140625" style="76" customWidth="1"/>
-    <col min="21" max="21" width="29.88671875" style="76" customWidth="1"/>
-    <col min="22" max="22" width="30.88671875" style="76" customWidth="1"/>
-    <col min="23" max="23" width="22.5546875" style="80" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" style="77" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="73"/>
+    <col min="1" max="1" width="18.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="16" customWidth="1"/>
+    <col min="3" max="7" width="21" style="19" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="19" style="11" customWidth="1"/>
+    <col min="20" max="20" width="21.88671875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="24.44140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="30.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:22" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="F1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="52" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="68" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="67" t="s">
+      <c r="H2" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="S2" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="T2" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="V2" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="W2" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="X2" s="67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="69" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="81" t="s">
+      <c r="U2" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="U3" s="81">
+    </row>
+    <row r="3" spans="1:22" s="53" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="54">
         <v>2012</v>
       </c>
-      <c r="V3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" s="81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
+      <c r="F3" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="G1:Z4">
-    <sortCondition ref="G1:Z1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="H1:X4">
+    <sortCondition ref="H1:X1"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{6FE1A1D9-B397-4C25-AD0F-703C24687475}"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{6FE1A1D9-B397-4C25-AD0F-703C24687475}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2754,62 +2692,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A348B52-6312-474E-A2C1-E78E7E60CE86}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="29.77734375" style="26"/>
+    <col min="1" max="4" width="29.77734375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>204</v>
+      <c r="A1" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>203</v>
+      <c r="A2" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>205</v>
+      <c r="A3" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
